--- a/participants/participant_34/participant_34_task_orders.xlsx
+++ b/participants/participant_34/participant_34_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731068888228" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1649873109849047" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731098500154" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731098970094" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731099611366" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912424464376" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291246318968" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912463199668" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912463669744" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912464299724" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731068458228.csv</t>
+          <t>go_stims-16502912423964.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731068718224.csv</t>
+          <t>GNG_stims-1650291242414398.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731068738208.csv</t>
+          <t>go_stims-16502912424163957.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731068878217.csv</t>
+          <t>GNG_stims-16502912424453948.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-16498731071028392.csv</t>
+          <t>ZB-match_2-16502912427499654.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498731086890123.csv</t>
+          <t>TB-16502912445508041.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1649873108450048.csv</t>
+          <t>ZB-match_8-1650291242626955.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498731093290136.csv</t>
+          <t>OB-16502912432999587.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498731078908505.csv</t>
+          <t>TB-1650291246301984.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498731098210514.csv</t>
+          <t>OB-16502912433619578.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498731078488557.csv</t>
+          <t>OB-16502912432349775.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498731080280125.csv</t>
+          <t>TB-16502912434859638.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498731093050482.csv</t>
+          <t>ZB-match_2-16502912426659644.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731098650515.csv</t>
+          <t>MM_stims-16502912463339674.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731098520617.csv</t>
+          <t>ZM_stims-16502912463219664.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731098810472.csv</t>
+          <t>MM_stims-16502912463500023.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731098660152.csv</t>
+          <t>ZM_stims-16502912463349664.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731098970094.csv</t>
+          <t>MM_stims-165029124636601.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873109882014.csv</t>
+          <t>ZM_stims-16502912463509753.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873109914051.csv</t>
+          <t>vSAT_stims-16502912464140072.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731099451368.csv</t>
+          <t>SAT_stims-16502912463699718.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731099019794.csv</t>
+          <t>vSAT_stims-1650291246398002.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873109929137.csv</t>
+          <t>SAT_stims-1650291246382971.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_34/participant_34_task_orders.xlsx
+++ b/participants/participant_34/participant_34_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912424464376" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291246318968" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912463199668" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912463669744" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912464299724" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778612935307" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778640326142" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477864038527" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778640975273" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778641605313" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912423964.csv</t>
+          <t>go_stims-16504778612545316.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291242414398.csv</t>
+          <t>GNG_stims-16504778612765307.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912424163957.csv</t>
+          <t>go_stims-16504778612775278.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912424453948.csv</t>
+          <t>GNG_stims-1650477861292562.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912427499654.csv</t>
+          <t>OB-16504778618525317.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502912445508041.csv</t>
+          <t>TB-16504778638945618.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_8-1650291242626955.csv</t>
+          <t>TB-16504778640185611.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16502912432999587.csv</t>
+          <t>ZB-match_5-1650477861353565.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650291246301984.csv</t>
+          <t>ZB-match_8-16504778615475287.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502912433619578.csv</t>
+          <t>OB-16504778632675278.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912432349775.csv</t>
+          <t>ZB-match_7-16504778618175313.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502912434859638.csv</t>
+          <t>TB-1650477863618559.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912426659644.csv</t>
+          <t>OB-16504778623415656.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912463339674.csv</t>
+          <t>MM_stims-16504778640645602.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912463219664.csv</t>
+          <t>ZM_stims-16504778640395272.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912463500023.csv</t>
+          <t>MM_stims-16504778640805604.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912463349664.csv</t>
+          <t>ZM_stims-165047786406553.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-165029124636601.csv</t>
+          <t>MM_stims-16504778640965595.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912463509753.csv</t>
+          <t>ZM_stims-16504778640805604.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912464140072.csv</t>
+          <t>vSAT_stims-16504778641445618.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912463699718.csv</t>
+          <t>vSAT_stims-16504778641285286.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291246398002.csv</t>
+          <t>SAT_stims-1650477864112559.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291246382971.csv</t>
+          <t>SAT_stims-16504778641005285.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_34/participant_34_task_orders.xlsx
+++ b/participants/participant_34/participant_34_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778612935307" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778640326142" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477864038527" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778640975273" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778641605313" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961541110818" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961557430844" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961557430844" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961557910767" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961558552272" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778612545316.csv</t>
+          <t>go_stims-16509961540790472.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778612765307.csv</t>
+          <t>GNG_stims-16509961540950804.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778612775278.csv</t>
+          <t>go_stims-16509961540950804.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477861292562.csv</t>
+          <t>GNG_stims-16509961541110818.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778618525317.csv</t>
+          <t>OB-16509961546950452.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504778638945618.csv</t>
+          <t>TB-165099615571908.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778640185611.csv</t>
+          <t>OB-1650996155463039.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650477861353565.csv</t>
+          <t>ZB-match_4-16509961545430434.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_8-16504778615475287.csv</t>
+          <t>TB-1650996155687077.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504778632675278.csv</t>
+          <t>TB-1650996155479126.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-16504778618175313.csv</t>
+          <t>OB-16509961551990733.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650477863618559.csv</t>
+          <t>ZB-match_6-16509961542230816.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778623415656.csv</t>
+          <t>ZB-match_7-16509961544950445.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778640645602.csv</t>
+          <t>MM_stims-16509961557590482.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778640395272.csv</t>
+          <t>ZM_stims-16509961557430844.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778640805604.csv</t>
+          <t>MM_stims-16509961557750418.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-165047786406553.csv</t>
+          <t>ZM_stims-16509961557590482.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778640965595.csv</t>
+          <t>MM_stims-16509961557910767.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778640805604.csv</t>
+          <t>ZM_stims-16509961557750418.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778641445618.csv</t>
+          <t>SAT_stims-16509961557910767.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778641285286.csv</t>
+          <t>SAT_stims-16509961558071926.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477864112559.csv</t>
+          <t>vSAT_stims-16509961558392272.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778641005285.csv</t>
+          <t>vSAT_stims-1650996155823231.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_34/participant_34_task_orders.xlsx
+++ b/participants/participant_34/participant_34_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961541110818" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961557430844" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961557430844" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961557910767" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961558552272" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168753160181" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687563795125" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687563805163" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687564422789" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687565190196" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961540790472.csv</t>
+          <t>go_stims-16511687531313653.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961540950804.csv</t>
+          <t>GNG_stims-16511687531441283.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961540950804.csv</t>
+          <t>go_stims-165116875314513.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961541110818.csv</t>
+          <t>GNG_stims-1651168753159213.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961546950452.csv</t>
+          <t>OB-16511687548141022.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-165099615571908.csv</t>
+          <t>ZB-match_2-16511687535823379.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650996155463039.csv</t>
+          <t>TB-16511687551242456.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961545430434.csv</t>
+          <t>ZB-match_3-1651168753177839.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650996155687077.csv</t>
+          <t>TB-16511687563565955.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650996155479126.csv</t>
+          <t>TB-16511687554338725.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509961551990733.csv</t>
+          <t>ZB-match_5-16511687533375025.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961542230816.csv</t>
+          <t>OB-1651168753792312.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16509961544950445.csv</t>
+          <t>OB-16511687541482425.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961557590482.csv</t>
+          <t>MM_stims-1651168756394822.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961557430844.csv</t>
+          <t>ZM_stims-1651168756382517.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961557750418.csv</t>
+          <t>MM_stims-16511687564259543.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961557590482.csv</t>
+          <t>ZM_stims-16511687563958127.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961557910767.csv</t>
+          <t>MM_stims-1651168756441289.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961557750418.csv</t>
+          <t>ZM_stims-16511687564269211.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961557910767.csv</t>
+          <t>SAT_stims-1651168756449077.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961558071926.csv</t>
+          <t>SAT_stims-16511687564737713.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961558392272.csv</t>
+          <t>vSAT_stims-16511687565038464.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996155823231.csv</t>
+          <t>vSAT_stims-16511687564880314.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_34/participant_34_task_orders.xlsx
+++ b/participants/participant_34/participant_34_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168753160181" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687563795125" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687563805163" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687564422789" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687565190196" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555801496427" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255582497778" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255582497778" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555825457711" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555826161163" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687531313653.csv</t>
+          <t>go_stims-1651255580114164.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687531441283.csv</t>
+          <t>GNG_stims-16512555801326437.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-165116875314513.csv</t>
+          <t>go_stims-16512555801346438.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168753159213.csv</t>
+          <t>GNG_stims-1651255580148643.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511687548141022.csv</t>
+          <t>OB-16512555815765684.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687535823379.csv</t>
+          <t>TB-16512555824821546.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511687551242456.csv</t>
+          <t>ZB-match_5-16512555813586478.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-1651168753177839.csv</t>
+          <t>OB-16512555818147686.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687563565955.csv</t>
+          <t>TB-16512555824665308.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511687554338725.csv</t>
+          <t>ZB-match_5-16512555809341896.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687533375025.csv</t>
+          <t>TB-16512555820416002.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168753792312.csv</t>
+          <t>ZB-match_7-16512555802603693.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511687541482425.csv</t>
+          <t>OB-16512555818872359.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168756394822.csv</t>
+          <t>MM_stims-16512555825134058.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168756382517.csv</t>
+          <t>ZM_stims-1651255582497778.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687564259543.csv</t>
+          <t>MM_stims-16512555825290294.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687563958127.csv</t>
+          <t>ZM_stims-16512555825134058.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168756441289.csv</t>
+          <t>MM_stims-16512555825447686.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687564269211.csv</t>
+          <t>ZM_stims-16512555825290294.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168756449077.csv</t>
+          <t>SAT_stims-16512555825507696.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687564737713.csv</t>
+          <t>vSAT_stims-16512555825848763.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687565038464.csv</t>
+          <t>vSAT_stims-16512555826004922.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687564880314.csv</t>
+          <t>SAT_stims-16512555825692403.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_34/participant_34_task_orders.xlsx
+++ b/participants/participant_34/participant_34_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555801496427" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255582497778" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255582497778" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555825457711" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555826161163" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515890120514839" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-1651589012082738" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651589012082738" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-1651589013968722" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TOL_TO-16515890140155973" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255580114164.csv</t>
+          <t>vSAT_stims-16515890120202353.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555801326437.csv</t>
+          <t>SAT_stims-1651589011988985.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555801346438.csv</t>
+          <t>vSAT_stims-165158901203586.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255580148643.csv</t>
+          <t>SAT_stims-16515890120046167.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512555815765684.csv</t>
+          <t>go_stims-16515890120514839.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555824821546.csv</t>
+          <t>GNG_stims-16515890120671113.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555813586478.csv</t>
+          <t>go_stims-16515890120671113.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512555818147686.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TB-16512555824665308.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZB-match_5-16512555809341896.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TB-16512555820416002.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ZB-match_7-16512555802603693.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-16512555818872359.csv</t>
+          <t>GNG_stims-1651589012082738.csv</t>
         </is>
       </c>
     </row>
@@ -657,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555825134058.csv</t>
+          <t>OB-16515890127193604.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255582497778.csv</t>
+          <t>OB-16515890125766222.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555825290294.csv</t>
+          <t>ZB-match_2-16515890122022789.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555825134058.csv</t>
+          <t>ZB-match_5-16515890124025984.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555825447686.csv</t>
+          <t>TB-16515890130986774.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555825290294.csv</t>
+          <t>TB-16515890137624652.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OB-1651589012924611.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TB-16515890139531288.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZB-match_7-165158901217992.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555825507696.csv</t>
+          <t>MM_stims-16515890139843483.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555825848763.csv</t>
+          <t>ZM_stims-1651589013968722.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +764,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555826004922.csv</t>
+          <t>MM_stims-16515890139999723.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +774,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555825692403.csv</t>
+          <t>ZM_stims-16515890139843483.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890140155973.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890139999723.csv</t>
         </is>
       </c>
     </row>
